--- a/testing/results_new_dataset/LLAMA_7B/new shit/KEYWORD_LLAMA_7B.xlsx
+++ b/testing/results_new_dataset/LLAMA_7B/new shit/KEYWORD_LLAMA_7B.xlsx
@@ -1544,7 +1544,7 @@
     <col min="6" max="6" style="3" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
       <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
       <c r="A10" s="2" t="s">
         <v>41</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
       <c r="A11" s="2" t="s">
         <v>45</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
       <c r="A12" s="2" t="s">
         <v>49</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
       <c r="A13" s="2" t="s">
         <v>53</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
       <c r="A14" s="2" t="s">
         <v>57</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
       <c r="A15" s="2" t="s">
         <v>62</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
       <c r="A16" s="2" t="s">
         <v>66</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
       <c r="A17" s="2" t="s">
         <v>69</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>72</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
       <c r="A18" s="2" t="s">
         <v>73</v>
       </c>
